--- a/posts.xlsx
+++ b/posts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD9BA97-172D-41E3-8053-6F268D8F0B04}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9773C73B-DF35-4E01-B7CF-23113CE6928D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Title</t>
   </si>
@@ -44,6 +44,39 @@
   </si>
   <si>
     <t>Software Transactional Memory Example using Multiverse</t>
+  </si>
+  <si>
+    <t>about-the-website</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Compress Large Text Data in Table</t>
+  </si>
+  <si>
+    <t>compress-large-text-data-in-table</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>How To</t>
+  </si>
+  <si>
+    <t>how-to-lock-a-file</t>
+  </si>
+  <si>
+    <t>How to Lock a File</t>
   </si>
 </sst>
 </file>
@@ -389,43 +422,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
         <v>6</v>
       </c>
     </row>
